--- a/data/trans_dic/P25_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece asma</t>
+          <t>Población que padece asma (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 17,8</t>
+          <t>0,0; 16,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 21,56</t>
+          <t>0,0; 21,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 24,77</t>
+          <t>0,0; 29,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 15,3</t>
+          <t>0,0; 22,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 12,47</t>
+          <t>1,77; 16,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,47</t>
+          <t>0,0; 13,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 13,3</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 13,86</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,52</t>
+          <t>1,22; 11,52</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 13,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 17,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 12,81</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>4,02%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,57</t>
+          <t>2,09; 18,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 14,23</t>
+          <t>1,4; 16,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 13,21</t>
+          <t>1,78; 17,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 17,14</t>
+          <t>1,6; 19,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 11,02</t>
+          <t>0,0; 12,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,8</t>
+          <t>0,0; 6,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 12,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,96</t>
+          <t>2,78; 17,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,41</t>
+          <t>2,12; 11,7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 9,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 9,82</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 14,78</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>9,35%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,45%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,41%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>8,16%</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 13,81</t>
+          <t>3,19; 18,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 11,31</t>
+          <t>1,58; 14,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 13,33</t>
+          <t>3,64; 21,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 13,74</t>
+          <t>1,92; 18,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 14,22</t>
+          <t>5,03; 17,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 15,74</t>
+          <t>3,85; 16,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,68</t>
+          <t>6,4; 20,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,64</t>
+          <t>5,8; 25,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,22</t>
+          <t>5,38; 15,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 12,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 18,0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 19,46</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>9,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,21</t>
+          <t>2,67; 14,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 15,85</t>
+          <t>4,74; 18,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 15,96</t>
+          <t>5,92; 20,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 12,64</t>
+          <t>4,44; 18,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 10,69</t>
+          <t>5,9; 18,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 14,06</t>
+          <t>4,07; 16,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,93</t>
+          <t>6,49; 19,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,78</t>
+          <t>5,63; 19,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 14,09</t>
+          <t>5,57; 14,56</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 13,78</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 17,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 15,3</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>5,6%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,34%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 26,64</t>
+          <t>0,0; 31,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,47</t>
+          <t>0,0; 8,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 22,54</t>
+          <t>1,5; 27,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,5</t>
+          <t>0,0; 22,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 12,75</t>
+          <t>1,86; 17,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 10,35</t>
+          <t>1,82; 16,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 15,65</t>
+          <t>0,0; 13,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,89</t>
+          <t>1,51; 14,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 12,79</t>
+          <t>2,44; 23,29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 9,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 22,14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 17,69</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,36</t>
+          <t>0,0; 14,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,56</t>
+          <t>0,0; 12,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 11,35</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 16,22</t>
+          <t>0,0; 15,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,62</t>
+          <t>2,42; 27,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 24,47</t>
+          <t>0,0; 27,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 11,92</t>
+          <t>1,92; 24,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 8,73</t>
+          <t>4,3; 46,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 16,45</t>
+          <t>2,48; 15,69</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 15,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 15,45</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 33,02</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,94</t>
+          <t>4,21; 11,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,24</t>
+          <t>3,56; 9,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,09</t>
+          <t>5,78; 13,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,7</t>
+          <t>4,93; 11,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,81</t>
+          <t>5,78; 11,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,1</t>
+          <t>4,12; 9,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,77</t>
+          <t>5,01; 10,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,64</t>
+          <t>6,57; 18,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,01</t>
+          <t>5,7; 10,25</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 8,2</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 10,87</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 12,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece asma (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7406</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11978</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10446</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8362</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2901</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11837</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12439</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14879</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13295</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22989</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 37560</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32419</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2372; 21913</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16236</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14994</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15272</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2930; 27761</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3534; 29350</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2941; 42693</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2847; 37318</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13397</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8937</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11297</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16975</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5444</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12541</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18841</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10868</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11297</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29516</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3522; 31738</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2004; 23134</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2747; 27211</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3643; 45227</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19824</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8084</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4506; 28899</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7075; 39052</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3055; 26546</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2926; 27549</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12168; 57637</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14097</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6942</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14611</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16271</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25754</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16415</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23748</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28225</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39851</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23356</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38359</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44496</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5173; 30357</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2126; 19304</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5016; 29487</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3453; 33216</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13287; 45852</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8059; 33575</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12826; 41067</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13896; 60026</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22906; 66417</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12448; 41697</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22378; 60866</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24451; 81734</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14476</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16050</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18783</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20636</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23815</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16147</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20563</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22610</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38291</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>32198</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>39347</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43246</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4987; 27674</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7637; 29878</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9247; 31382</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8940; 38178</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12874; 39785</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7559; 29793</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11187; 34211</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11978; 40609</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22569; 58966</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18973; 47852</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24888; 57794</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25379; 63384</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13895</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3416</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11411</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9253</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7246</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5836</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3414</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21142</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9253</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14825</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16344</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 49080</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10965</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1852; 33617</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 35156</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2114; 19429</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1712; 15782</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12152</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2064; 19558</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6611; 63188</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3482; 21387</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3738; 47787</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4649; 51603</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2946</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2210</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15435</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7620</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9813</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>37621</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18381</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9673</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12023</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>43778</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15770</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10482</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11227</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 21761</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3332; 37893</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 28831</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2124; 26866</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9064; 97319</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6126; 38735</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2069; 29006</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3797; 31011</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13927; 115139</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>62287</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>44805</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>70290</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>79737</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>86057</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>52981</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>60438</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>110938</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>148344</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>97786</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>130728</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>190676</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>37529; 103764</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>27219; 69437</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>45626; 108263</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>51623; 121427</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>59756; 119791</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>34629; 79066</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>41301; 88771</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>72806; 207449</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>109751; 197257</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>70206; 131644</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>95119; 175510</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>136801; 276418</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>